--- a/biology/Botanique/Alexandre_de_Simon_de_Palmas/Alexandre_de_Simon_de_Palmas.xlsx
+++ b/biology/Botanique/Alexandre_de_Simon_de_Palmas/Alexandre_de_Simon_de_Palmas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre de Simon de Palmas, né le 9 septembre 1684 à Marseille et mort le 22 octobre 1747 à Grasse, est un ingénieur et botaniste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre de Simon de Palmas est né dans une famille d'ancienne bourgeoisie originaire du Lyonnais, établie à l'Île de la Réunion[1], issue de Nicolas Simon (1639-1702), directeur de la monnaie à Lyon, directeur général des vivres de la marine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre de Simon de Palmas est né dans une famille d'ancienne bourgeoisie originaire du Lyonnais, établie à l'Île de la Réunion, issue de Nicolas Simon (1639-1702), directeur de la monnaie à Lyon, directeur général des vivres de la marine.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingénieur en chef de 1724 à 1728, puis directeur général du Canal du Midi de 1728 à 1746, il est directeur de l'Académie des sciences, inscriptions et belles-lettres de Toulouse. Brigadier des Ingénieurs du roi durant les campagnes d'Italie, il commanda la seconde Brigade des Ingénieurs aux sièges de Demont et de Cony.
 Il est le grand-oncle de Jean-Baptiste Symon de Solémy et le gendre de Jacques de Montbrault de La Servière, directeur général du Canal du Languedoc de 1699 à 1714. Il eut un fils naturel, ingénieur en chef de Mahé, de la petite-fille de François Andréossy.
